--- a/day08/data/다나와_무선청소기_결과.xlsx
+++ b/day08/data/다나와_무선청소기_결과.xlsx
@@ -16337,7 +16337,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>47520</t>
+          <t>50030</t>
         </is>
       </c>
     </row>
